--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,51 @@
           <t>mac-адрес</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>03.11.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Миша</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>50:ff:20:a0:e3:c4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>52:ff:20:a0:e3:c3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04:7c:16:3e:cc:79</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,51 +427,6 @@
           <t>mac-адрес</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>03.11.23</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Миша</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>50:ff:20:a0:e3:c4</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>52:ff:20:a0:e3:c3</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04:7c:16:3e:cc:79</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9.68</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,55 @@
           <t>mac-адрес</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>20.11.23</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>21.11.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ноутбук</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>b4:0e:de:5f:17:11</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>50:a1:32:1d:88:af</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,52 +429,48 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>20.11.23</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>21.11.23</t>
+          <t>03.11.23</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ноутбук</t>
+          <t>50:ff:20:a0:e3:c5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b4:0e:de:5f:17:11</t>
+          <t>50:ff:20:a0:e3:c4</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>50:a1:32:1d:88:af</t>
+          <t>52:ff:20:a0:e3:c3</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>13.37</v>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>04:7c:16:3e:cc:79</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.68</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>03.11.23</t>
+          <t>09:41 04.11.23</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.68</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,14 +429,14 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>09:41 04.11.23</t>
+          <t>22.11.23</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>50:ff:20:a0:e3:c5</t>
+          <t>Ноутбук</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -446,7 +446,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>50:ff:20:a0:e3:c4</t>
+          <t>b4:0e:de:5f:17:11</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -456,20 +456,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>52:ff:20:a0:e3:c3</t>
+          <t>50:a1:32:1d:88:af</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04:7c:16:3e:cc:79</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>21.11.23</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>22.11.23</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>27.11.23</t>
         </is>
       </c>
     </row>
@@ -442,6 +452,12 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -452,6 +468,12 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +482,12 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>

--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,52 +442,237 @@
           <t>27.11.23</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>01.12.23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ноутбук</t>
+          <t>50:ff:20:a0:e3:c5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b4:0e:de:5f:17:11</t>
+          <t>50:ff:20:a0:e3:c4</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>52:ff:20:a0:e3:c3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3a:75:ff:70:04:09</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>32:9a:21:4a:7f:d8</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>7e:01:87:52:30:ee</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0a:3f:67:a7:fd:1f</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0e:54:22:61:b3:fe</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>50:a1:32:1d:88:af</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ноутбук</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cc:47:40:3b:91:29</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>b4:0e:de:5f:17:11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23.77777777777778</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.5</v>
+        <v>23.78571428571428</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -626,16 +626,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.4</v>
+        <v>23.78571428571428</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>24</v>
+        <v>24.25</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="12">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="13">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>23.77777777777778</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>

--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>50:ff:20:a0:e3:c5</t>
+          <t>00:00:00:00:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>50:ff:20:a0:e3:c4</t>
+          <t>b4:0e:de:5f:17:11</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -483,13 +483,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>52:ff:20:a0:e3:c3</t>
+          <t>50:ff:20:a0:e3:c5</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -508,11 +508,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3a:75:ff:70:04:09</t>
+          <t>50:ff:20:a0:e3:c4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>32:9a:21:4a:7f:d8</t>
+          <t>52:ff:20:a0:e3:c3</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -540,17 +540,17 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7e:01:87:52:30:ee</t>
+          <t>3a:75:ff:70:04:09</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0a:3f:67:a7:fd:1f</t>
+          <t>32:9a:21:4a:7f:d8</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -578,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0e:54:22:61:b3:fe</t>
+          <t>7e:01:87:52:30:ee</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -597,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>50:a1:32:1d:88:af</t>
+          <t>0a:3f:67:a7:fd:1f</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -616,32 +616,32 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ноутбук</t>
+          <t>0e:54:22:61:b3:fe</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.78571428571428</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>24.25</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>24.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cc:47:40:3b:91:29</t>
+          <t>50:a1:32:1d:88:af</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -654,25 +654,44 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>24.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>b4:0e:de:5f:17:11</t>
+          <t>Ноутбук</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cc:47:40:3b:91:29</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>

--- a/report.xlsx
+++ b/report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,11 +447,26 @@
           <t>01.12.23</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>06.12.23</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>08.12.23</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>14.12.23</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00:00:00:00:00:00</t>
+          <t>50:ff:20:a0:e3:c5</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -464,13 +479,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>b4:0e:de:5f:17:11</t>
+          <t>50:ff:20:a0:e3:c4</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -483,13 +507,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>50:ff:20:a0:e3:c5</t>
+          <t>52:ff:20:a0:e3:c3</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -502,17 +535,26 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>50:ff:20:a0:e3:c4</t>
+          <t>3a:75:ff:70:04:09</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -521,13 +563,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>52:ff:20:a0:e3:c3</t>
+          <t>8c:7a:3d:8c:44:be</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -541,12 +592,21 @@
       </c>
       <c r="E6" t="n">
         <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3a:75:ff:70:04:09</t>
+          <t>32:9a:21:4a:7f:d8</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -559,51 +619,78 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>32:9a:21:4a:7f:d8</t>
+          <t>b4:0e:de:5f:17:11</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7e:01:87:52:30:ee</t>
+          <t>50:a1:32:1d:88:af</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0a:3f:67:a7:fd:1f</t>
+          <t>00:00:00:00:00:00</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -616,13 +703,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0e:54:22:61:b3:fe</t>
+          <t>7e:01:87:52:30:ee</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -635,13 +731,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>50:a1:32:1d:88:af</t>
+          <t>64:a2:00:a1:bf:94</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -654,13 +759,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ноутбук</t>
+          <t>0a:3f:67:a7:fd:1f</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -673,26 +787,156 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>0e:54:22:61:b3:fe</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ноутбук</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>cc:47:40:3b:91:29</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>00:5c:6c:1f:57:9e</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>c2:eb:ea:56:80:85</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
